--- a/src/test/java/ApachePOI/resource/B_Mltplctn.xlsx
+++ b/src/test/java/ApachePOI/resource/B_Mltplctn.xlsx
@@ -6,7 +6,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sayfa1" r:id="rId3" sheetId="1"/>
+    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>

--- a/src/test/java/ApachePOI/resource/B_Mltplctn.xlsx
+++ b/src/test/java/ApachePOI/resource/B_Mltplctn.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="2">
   <si>
     <t>X</t>
   </si>
@@ -62,7 +62,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:BG11"/>
+  <dimension ref="A2:BA11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -70,7 +70,7 @@
   <sheetData>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -82,10 +82,10 @@
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H2" t="s">
         <v>0</v>
@@ -97,10 +97,10 @@
         <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="N2" t="s">
         <v>0</v>
@@ -112,10 +112,10 @@
         <v>1</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="S2" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="T2" t="s">
         <v>0</v>
@@ -127,10 +127,10 @@
         <v>1</v>
       </c>
       <c r="W2" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="Y2" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="Z2" t="s">
         <v>0</v>
@@ -142,10 +142,10 @@
         <v>1</v>
       </c>
       <c r="AC2" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="AE2" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="AF2" t="s">
         <v>0</v>
@@ -157,10 +157,10 @@
         <v>1</v>
       </c>
       <c r="AI2" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="AK2" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="AL2" t="s">
         <v>0</v>
@@ -172,10 +172,10 @@
         <v>1</v>
       </c>
       <c r="AO2" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="AQ2" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="AR2" t="s">
         <v>0</v>
@@ -187,10 +187,10 @@
         <v>1</v>
       </c>
       <c r="AU2" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="AW2" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="AX2" t="s">
         <v>0</v>
@@ -202,27 +202,12 @@
         <v>1</v>
       </c>
       <c r="BA2" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="BD2" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="BF2" t="s">
-        <v>1</v>
-      </c>
-      <c r="BG2" t="n">
         <v>10.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -234,10 +219,10 @@
         <v>1</v>
       </c>
       <c r="E3" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H3" t="s">
         <v>0</v>
@@ -249,10 +234,10 @@
         <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="M3" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="N3" t="s">
         <v>0</v>
@@ -264,10 +249,10 @@
         <v>1</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.0</v>
+        <v>8.0</v>
       </c>
       <c r="S3" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="T3" t="s">
         <v>0</v>
@@ -279,10 +264,10 @@
         <v>1</v>
       </c>
       <c r="W3" t="n">
-        <v>8.0</v>
+        <v>10.0</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="Z3" t="s">
         <v>0</v>
@@ -294,10 +279,10 @@
         <v>1</v>
       </c>
       <c r="AC3" t="n">
-        <v>10.0</v>
+        <v>12.0</v>
       </c>
       <c r="AE3" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="AF3" t="s">
         <v>0</v>
@@ -309,10 +294,10 @@
         <v>1</v>
       </c>
       <c r="AI3" t="n">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c r="AK3" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="AL3" t="s">
         <v>0</v>
@@ -324,10 +309,10 @@
         <v>1</v>
       </c>
       <c r="AO3" t="n">
-        <v>14.0</v>
+        <v>16.0</v>
       </c>
       <c r="AQ3" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="AR3" t="s">
         <v>0</v>
@@ -339,10 +324,10 @@
         <v>1</v>
       </c>
       <c r="AU3" t="n">
-        <v>16.0</v>
+        <v>18.0</v>
       </c>
       <c r="AW3" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="AX3" t="s">
         <v>0</v>
@@ -354,27 +339,12 @@
         <v>1</v>
       </c>
       <c r="BA3" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="BC3" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE3" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="BF3" t="s">
-        <v>1</v>
-      </c>
-      <c r="BG3" t="n">
         <v>20.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
@@ -386,10 +356,10 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
       <c r="G4" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H4" t="s">
         <v>0</v>
@@ -401,10 +371,10 @@
         <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="M4" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="N4" t="s">
         <v>0</v>
@@ -416,10 +386,10 @@
         <v>1</v>
       </c>
       <c r="Q4" t="n">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
       <c r="S4" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="T4" t="s">
         <v>0</v>
@@ -431,10 +401,10 @@
         <v>1</v>
       </c>
       <c r="W4" t="n">
-        <v>12.0</v>
+        <v>15.0</v>
       </c>
       <c r="Y4" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="Z4" t="s">
         <v>0</v>
@@ -446,10 +416,10 @@
         <v>1</v>
       </c>
       <c r="AC4" t="n">
-        <v>15.0</v>
+        <v>18.0</v>
       </c>
       <c r="AE4" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="AF4" t="s">
         <v>0</v>
@@ -461,10 +431,10 @@
         <v>1</v>
       </c>
       <c r="AI4" t="n">
-        <v>18.0</v>
+        <v>21.0</v>
       </c>
       <c r="AK4" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="AL4" t="s">
         <v>0</v>
@@ -476,10 +446,10 @@
         <v>1</v>
       </c>
       <c r="AO4" t="n">
-        <v>21.0</v>
+        <v>24.0</v>
       </c>
       <c r="AQ4" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="AR4" t="s">
         <v>0</v>
@@ -491,10 +461,10 @@
         <v>1</v>
       </c>
       <c r="AU4" t="n">
-        <v>24.0</v>
+        <v>27.0</v>
       </c>
       <c r="AW4" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="AX4" t="s">
         <v>0</v>
@@ -506,27 +476,12 @@
         <v>1</v>
       </c>
       <c r="BA4" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="BD4" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE4" t="n">
-        <v>3.0</v>
-      </c>
-      <c r="BF4" t="s">
-        <v>1</v>
-      </c>
-      <c r="BG4" t="n">
         <v>30.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
@@ -538,10 +493,10 @@
         <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>4.0</v>
+        <v>8.0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H5" t="s">
         <v>0</v>
@@ -553,10 +508,10 @@
         <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
       <c r="M5" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="N5" t="s">
         <v>0</v>
@@ -568,10 +523,10 @@
         <v>1</v>
       </c>
       <c r="Q5" t="n">
-        <v>12.0</v>
+        <v>16.0</v>
       </c>
       <c r="S5" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="T5" t="s">
         <v>0</v>
@@ -583,10 +538,10 @@
         <v>1</v>
       </c>
       <c r="W5" t="n">
-        <v>16.0</v>
+        <v>20.0</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="Z5" t="s">
         <v>0</v>
@@ -598,10 +553,10 @@
         <v>1</v>
       </c>
       <c r="AC5" t="n">
-        <v>20.0</v>
+        <v>24.0</v>
       </c>
       <c r="AE5" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="AF5" t="s">
         <v>0</v>
@@ -613,10 +568,10 @@
         <v>1</v>
       </c>
       <c r="AI5" t="n">
-        <v>24.0</v>
+        <v>28.0</v>
       </c>
       <c r="AK5" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="AL5" t="s">
         <v>0</v>
@@ -628,10 +583,10 @@
         <v>1</v>
       </c>
       <c r="AO5" t="n">
-        <v>28.0</v>
+        <v>32.0</v>
       </c>
       <c r="AQ5" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="AR5" t="s">
         <v>0</v>
@@ -643,10 +598,10 @@
         <v>1</v>
       </c>
       <c r="AU5" t="n">
-        <v>32.0</v>
+        <v>36.0</v>
       </c>
       <c r="AW5" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="AX5" t="s">
         <v>0</v>
@@ -658,27 +613,12 @@
         <v>1</v>
       </c>
       <c r="BA5" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="BD5" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE5" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="BF5" t="s">
-        <v>1</v>
-      </c>
-      <c r="BG5" t="n">
         <v>40.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
@@ -690,10 +630,10 @@
         <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H6" t="s">
         <v>0</v>
@@ -705,10 +645,10 @@
         <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
       <c r="M6" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="N6" t="s">
         <v>0</v>
@@ -720,10 +660,10 @@
         <v>1</v>
       </c>
       <c r="Q6" t="n">
-        <v>15.0</v>
+        <v>20.0</v>
       </c>
       <c r="S6" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="T6" t="s">
         <v>0</v>
@@ -735,10 +675,10 @@
         <v>1</v>
       </c>
       <c r="W6" t="n">
-        <v>20.0</v>
+        <v>25.0</v>
       </c>
       <c r="Y6" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="Z6" t="s">
         <v>0</v>
@@ -750,10 +690,10 @@
         <v>1</v>
       </c>
       <c r="AC6" t="n">
-        <v>25.0</v>
+        <v>30.0</v>
       </c>
       <c r="AE6" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="AF6" t="s">
         <v>0</v>
@@ -765,10 +705,10 @@
         <v>1</v>
       </c>
       <c r="AI6" t="n">
-        <v>30.0</v>
+        <v>35.0</v>
       </c>
       <c r="AK6" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="AL6" t="s">
         <v>0</v>
@@ -780,10 +720,10 @@
         <v>1</v>
       </c>
       <c r="AO6" t="n">
-        <v>35.0</v>
+        <v>40.0</v>
       </c>
       <c r="AQ6" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="AR6" t="s">
         <v>0</v>
@@ -795,10 +735,10 @@
         <v>1</v>
       </c>
       <c r="AU6" t="n">
-        <v>40.0</v>
+        <v>45.0</v>
       </c>
       <c r="AW6" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="AX6" t="s">
         <v>0</v>
@@ -810,27 +750,12 @@
         <v>1</v>
       </c>
       <c r="BA6" t="n">
-        <v>45.0</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="BD6" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE6" t="n">
-        <v>5.0</v>
-      </c>
-      <c r="BF6" t="s">
-        <v>1</v>
-      </c>
-      <c r="BG6" t="n">
         <v>50.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
@@ -842,10 +767,10 @@
         <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>6.0</v>
+        <v>12.0</v>
       </c>
       <c r="G7" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H7" t="s">
         <v>0</v>
@@ -857,10 +782,10 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>12.0</v>
+        <v>18.0</v>
       </c>
       <c r="M7" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="N7" t="s">
         <v>0</v>
@@ -872,10 +797,10 @@
         <v>1</v>
       </c>
       <c r="Q7" t="n">
-        <v>18.0</v>
+        <v>24.0</v>
       </c>
       <c r="S7" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="T7" t="s">
         <v>0</v>
@@ -887,10 +812,10 @@
         <v>1</v>
       </c>
       <c r="W7" t="n">
-        <v>24.0</v>
+        <v>30.0</v>
       </c>
       <c r="Y7" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="Z7" t="s">
         <v>0</v>
@@ -902,10 +827,10 @@
         <v>1</v>
       </c>
       <c r="AC7" t="n">
-        <v>30.0</v>
+        <v>36.0</v>
       </c>
       <c r="AE7" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="AF7" t="s">
         <v>0</v>
@@ -917,10 +842,10 @@
         <v>1</v>
       </c>
       <c r="AI7" t="n">
-        <v>36.0</v>
+        <v>42.0</v>
       </c>
       <c r="AK7" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="AL7" t="s">
         <v>0</v>
@@ -932,10 +857,10 @@
         <v>1</v>
       </c>
       <c r="AO7" t="n">
-        <v>42.0</v>
+        <v>48.0</v>
       </c>
       <c r="AQ7" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="AR7" t="s">
         <v>0</v>
@@ -947,10 +872,10 @@
         <v>1</v>
       </c>
       <c r="AU7" t="n">
-        <v>48.0</v>
+        <v>54.0</v>
       </c>
       <c r="AW7" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="AX7" t="s">
         <v>0</v>
@@ -962,27 +887,12 @@
         <v>1</v>
       </c>
       <c r="BA7" t="n">
-        <v>54.0</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="BD7" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE7" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="BF7" t="s">
-        <v>1</v>
-      </c>
-      <c r="BG7" t="n">
         <v>60.0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
@@ -994,10 +904,10 @@
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>7.0</v>
+        <v>14.0</v>
       </c>
       <c r="G8" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H8" t="s">
         <v>0</v>
@@ -1009,10 +919,10 @@
         <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>14.0</v>
+        <v>21.0</v>
       </c>
       <c r="M8" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="N8" t="s">
         <v>0</v>
@@ -1024,10 +934,10 @@
         <v>1</v>
       </c>
       <c r="Q8" t="n">
-        <v>21.0</v>
+        <v>28.0</v>
       </c>
       <c r="S8" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="T8" t="s">
         <v>0</v>
@@ -1039,10 +949,10 @@
         <v>1</v>
       </c>
       <c r="W8" t="n">
-        <v>28.0</v>
+        <v>35.0</v>
       </c>
       <c r="Y8" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="Z8" t="s">
         <v>0</v>
@@ -1054,10 +964,10 @@
         <v>1</v>
       </c>
       <c r="AC8" t="n">
-        <v>35.0</v>
+        <v>42.0</v>
       </c>
       <c r="AE8" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="AF8" t="s">
         <v>0</v>
@@ -1069,10 +979,10 @@
         <v>1</v>
       </c>
       <c r="AI8" t="n">
-        <v>42.0</v>
+        <v>49.0</v>
       </c>
       <c r="AK8" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="AL8" t="s">
         <v>0</v>
@@ -1084,10 +994,10 @@
         <v>1</v>
       </c>
       <c r="AO8" t="n">
-        <v>49.0</v>
+        <v>56.0</v>
       </c>
       <c r="AQ8" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="AR8" t="s">
         <v>0</v>
@@ -1099,10 +1009,10 @@
         <v>1</v>
       </c>
       <c r="AU8" t="n">
-        <v>56.0</v>
+        <v>63.0</v>
       </c>
       <c r="AW8" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="AX8" t="s">
         <v>0</v>
@@ -1114,27 +1024,12 @@
         <v>1</v>
       </c>
       <c r="BA8" t="n">
-        <v>63.0</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="BD8" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE8" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="BF8" t="s">
-        <v>1</v>
-      </c>
-      <c r="BG8" t="n">
         <v>70.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
@@ -1146,10 +1041,10 @@
         <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>8.0</v>
+        <v>16.0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H9" t="s">
         <v>0</v>
@@ -1161,10 +1056,10 @@
         <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>16.0</v>
+        <v>24.0</v>
       </c>
       <c r="M9" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="N9" t="s">
         <v>0</v>
@@ -1176,10 +1071,10 @@
         <v>1</v>
       </c>
       <c r="Q9" t="n">
-        <v>24.0</v>
+        <v>32.0</v>
       </c>
       <c r="S9" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="T9" t="s">
         <v>0</v>
@@ -1191,10 +1086,10 @@
         <v>1</v>
       </c>
       <c r="W9" t="n">
-        <v>32.0</v>
+        <v>40.0</v>
       </c>
       <c r="Y9" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="Z9" t="s">
         <v>0</v>
@@ -1206,10 +1101,10 @@
         <v>1</v>
       </c>
       <c r="AC9" t="n">
-        <v>40.0</v>
+        <v>48.0</v>
       </c>
       <c r="AE9" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="AF9" t="s">
         <v>0</v>
@@ -1221,10 +1116,10 @@
         <v>1</v>
       </c>
       <c r="AI9" t="n">
-        <v>48.0</v>
+        <v>56.0</v>
       </c>
       <c r="AK9" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="AL9" t="s">
         <v>0</v>
@@ -1236,10 +1131,10 @@
         <v>1</v>
       </c>
       <c r="AO9" t="n">
-        <v>56.0</v>
+        <v>64.0</v>
       </c>
       <c r="AQ9" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="AR9" t="s">
         <v>0</v>
@@ -1251,10 +1146,10 @@
         <v>1</v>
       </c>
       <c r="AU9" t="n">
-        <v>64.0</v>
+        <v>72.0</v>
       </c>
       <c r="AW9" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="AX9" t="s">
         <v>0</v>
@@ -1266,27 +1161,12 @@
         <v>1</v>
       </c>
       <c r="BA9" t="n">
-        <v>72.0</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="BD9" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE9" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="BF9" t="s">
-        <v>1</v>
-      </c>
-      <c r="BG9" t="n">
         <v>80.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
@@ -1298,10 +1178,10 @@
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>9.0</v>
+        <v>18.0</v>
       </c>
       <c r="G10" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H10" t="s">
         <v>0</v>
@@ -1313,10 +1193,10 @@
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>18.0</v>
+        <v>27.0</v>
       </c>
       <c r="M10" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="N10" t="s">
         <v>0</v>
@@ -1328,10 +1208,10 @@
         <v>1</v>
       </c>
       <c r="Q10" t="n">
-        <v>27.0</v>
+        <v>36.0</v>
       </c>
       <c r="S10" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="T10" t="s">
         <v>0</v>
@@ -1343,10 +1223,10 @@
         <v>1</v>
       </c>
       <c r="W10" t="n">
-        <v>36.0</v>
+        <v>45.0</v>
       </c>
       <c r="Y10" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="Z10" t="s">
         <v>0</v>
@@ -1358,10 +1238,10 @@
         <v>1</v>
       </c>
       <c r="AC10" t="n">
-        <v>45.0</v>
+        <v>54.0</v>
       </c>
       <c r="AE10" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="AF10" t="s">
         <v>0</v>
@@ -1373,10 +1253,10 @@
         <v>1</v>
       </c>
       <c r="AI10" t="n">
-        <v>54.0</v>
+        <v>63.0</v>
       </c>
       <c r="AK10" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="AL10" t="s">
         <v>0</v>
@@ -1388,10 +1268,10 @@
         <v>1</v>
       </c>
       <c r="AO10" t="n">
-        <v>63.0</v>
+        <v>72.0</v>
       </c>
       <c r="AQ10" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="AR10" t="s">
         <v>0</v>
@@ -1403,10 +1283,10 @@
         <v>1</v>
       </c>
       <c r="AU10" t="n">
-        <v>72.0</v>
+        <v>81.0</v>
       </c>
       <c r="AW10" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="AX10" t="s">
         <v>0</v>
@@ -1418,27 +1298,12 @@
         <v>1</v>
       </c>
       <c r="BA10" t="n">
-        <v>81.0</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="BD10" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE10" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="BF10" t="s">
-        <v>1</v>
-      </c>
-      <c r="BG10" t="n">
         <v>90.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
@@ -1450,10 +1315,10 @@
         <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="H11" t="s">
         <v>0</v>
@@ -1465,10 +1330,10 @@
         <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>20.0</v>
+        <v>30.0</v>
       </c>
       <c r="M11" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="N11" t="s">
         <v>0</v>
@@ -1480,10 +1345,10 @@
         <v>1</v>
       </c>
       <c r="Q11" t="n">
-        <v>30.0</v>
+        <v>40.0</v>
       </c>
       <c r="S11" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="T11" t="s">
         <v>0</v>
@@ -1495,10 +1360,10 @@
         <v>1</v>
       </c>
       <c r="W11" t="n">
-        <v>40.0</v>
+        <v>50.0</v>
       </c>
       <c r="Y11" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="Z11" t="s">
         <v>0</v>
@@ -1510,10 +1375,10 @@
         <v>1</v>
       </c>
       <c r="AC11" t="n">
-        <v>50.0</v>
+        <v>60.0</v>
       </c>
       <c r="AE11" t="n">
-        <v>6.0</v>
+        <v>7.0</v>
       </c>
       <c r="AF11" t="s">
         <v>0</v>
@@ -1525,10 +1390,10 @@
         <v>1</v>
       </c>
       <c r="AI11" t="n">
-        <v>60.0</v>
+        <v>70.0</v>
       </c>
       <c r="AK11" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
       <c r="AL11" t="s">
         <v>0</v>
@@ -1540,10 +1405,10 @@
         <v>1</v>
       </c>
       <c r="AO11" t="n">
-        <v>70.0</v>
+        <v>80.0</v>
       </c>
       <c r="AQ11" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
       <c r="AR11" t="s">
         <v>0</v>
@@ -1555,10 +1420,10 @@
         <v>1</v>
       </c>
       <c r="AU11" t="n">
-        <v>80.0</v>
+        <v>90.0</v>
       </c>
       <c r="AW11" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="AX11" t="s">
         <v>0</v>
@@ -1570,21 +1435,6 @@
         <v>1</v>
       </c>
       <c r="BA11" t="n">
-        <v>90.0</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="BD11" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE11" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="BF11" t="s">
-        <v>1</v>
-      </c>
-      <c r="BG11" t="n">
         <v>100.0</v>
       </c>
     </row>
